--- a/current-current-pion/expdata/14132.xlsx
+++ b/current-current-pion/expdata/14132.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/current-current-pion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/current-current-pion/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE07B96-DB9B-C540-BE9F-98FD3669A72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9019183F-6C62-6F4A-9C1E-ACE540B30DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="6480" windowWidth="27240" windowHeight="13920" xr2:uid="{E206C34D-8BAE-7540-8841-FEA4FFB96866}"/>
   </bookViews>
@@ -512,10 +512,10 @@
         <v>0.52359877559829882</v>
       </c>
       <c r="K2">
-        <v>0.11449930649717546</v>
+        <v>0.10430323917137489</v>
       </c>
       <c r="L2">
-        <v>3.6256728300191384E-3</v>
+        <v>3.302665060362862E-3</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -556,10 +556,10 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="K3">
-        <v>0.10629620480225985</v>
+        <v>0.10223953766478348</v>
       </c>
       <c r="L3">
-        <v>3.4889198774143391E-3</v>
+        <v>3.3559064329652145E-3</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -600,10 +600,10 @@
         <v>1.0471975511965976</v>
       </c>
       <c r="K4">
-        <v>8.7106168314500826E-2</v>
+        <v>7.952248841807906E-2</v>
       </c>
       <c r="L4">
-        <v>1.7683730216715158E-2</v>
+        <v>1.6144136809847862E-2</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -644,10 +644,10 @@
         <v>1.0471975511965976</v>
       </c>
       <c r="K5">
-        <v>0.11631643549905843</v>
+        <v>0.10601843644067772</v>
       </c>
       <c r="L5">
-        <v>6.803131643836613E-3</v>
+        <v>6.2000630980250191E-3</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -688,10 +688,10 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="K6">
-        <v>0.10342453436911518</v>
+        <v>9.5333187947269513E-2</v>
       </c>
       <c r="L6">
-        <v>4.614571972681167E-3</v>
+        <v>4.2538647077040555E-3</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -732,10 +732,10 @@
         <v>2.0943951023931953</v>
       </c>
       <c r="K7">
-        <v>7.2502810593220363E-2</v>
+        <v>6.6500970809792906E-2</v>
       </c>
       <c r="L7">
-        <v>1.0701896152161661E-2</v>
+        <v>9.8159032304830293E-3</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -776,10 +776,10 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="K8">
-        <v>8.181800517890761E-2</v>
+        <v>7.5141731120527147E-2</v>
       </c>
       <c r="L8">
-        <v>1.8190070934524464E-2</v>
+        <v>1.6705733268938951E-2</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -820,10 +820,10 @@
         <v>2.3561944901923448</v>
       </c>
       <c r="K9">
-        <v>6.7290692514124492E-2</v>
+        <v>6.1792912099811734E-2</v>
       </c>
       <c r="L9">
-        <v>2.3389799035284056E-2</v>
+        <v>2.147887606694154E-2</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -864,10 +864,10 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="K10">
-        <v>3.6742296421845622E-2</v>
+        <v>3.3711741101694913E-2</v>
       </c>
       <c r="L10">
-        <v>9.8723308885392373E-3</v>
+        <v>9.0580795184090779E-3</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -908,10 +908,10 @@
         <v>2.0943951023931953</v>
       </c>
       <c r="K11">
-        <v>8.5808869444444352E-2</v>
+        <v>7.700109435028249E-2</v>
       </c>
       <c r="L11">
-        <v>2.0861952267871409E-2</v>
+        <v>1.872060354081043E-2</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -952,10 +952,10 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="K12">
-        <v>6.2920425047080897E-2</v>
+        <v>5.2332614218455836E-2</v>
       </c>
       <c r="L12">
-        <v>2.159060827553257E-2</v>
+        <v>1.7957456450472125E-2</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -996,10 +996,10 @@
         <v>4.1887902047863905</v>
       </c>
       <c r="K13">
-        <v>2.1422275941619533E-2</v>
+        <v>1.9357784839924667E-2</v>
       </c>
       <c r="L13">
-        <v>1.8182684041708929E-2</v>
+        <v>1.6430404413520852E-2</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
